--- a/git-connect/resources/KSP.xlsx
+++ b/git-connect/resources/KSP.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stack\lme\ff-fes-xlsx\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rene Smeitink\Documents\Monli\Wat kost een kind\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="8592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14348" windowHeight="4020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Opvangtoeslag" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ABC">Sheet2!$G$6:$N$16</definedName>
-    <definedName name="LeeftijdGeslachtGebondenKosten">Sheet2!$B$82:$T$99</definedName>
+    <definedName name="ABC">Opvangtoeslag!$G$6:$N$16</definedName>
     <definedName name="MaxCoverageChildCare">Sheet3!$B$3:$D$6</definedName>
-    <definedName name="Opvangtoeslaginkomenstabel">Sheet2!$B$4:$D$77</definedName>
+    <definedName name="PremiumOutOfSchoolCare">Opvangtoeslag!$B$4:$D$77</definedName>
     <definedName name="Version">Sheet1!$B$2:$E$7</definedName>
+    <definedName name="YearlyChildCosts">Opvangtoeslag!$B$82:$T$99</definedName>
     <definedName name="ZoekenAlfanumeriek">Sheet1!$B$30:$C$39</definedName>
     <definedName name="ZoekenNumeriek">Sheet1!$B$18:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -170,18 +170,12 @@
     <t>ZoekenAlfanumeriek</t>
   </si>
   <si>
-    <t>Opvangtoeslaginkomenstabel</t>
-  </si>
-  <si>
     <t>ExactOrPrevious</t>
   </si>
   <si>
     <t>Diapers</t>
   </si>
   <si>
-    <t>LeeftijdGeslachtGebondenKosten</t>
-  </si>
-  <si>
     <t>FoodCostsGirl</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>MaxCoverageChildCare</t>
+  </si>
+  <si>
+    <t>YearlyChildCosts</t>
+  </si>
+  <si>
+    <t>PremiumOutOfSchoolCare</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -951,25 +951,25 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="18" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.46484375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1128,7 +1128,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="34"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
@@ -1174,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="23"/>
       <c r="D13" s="3"/>
@@ -1186,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
       <c r="D14" s="3"/>
@@ -1198,7 +1198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
       <c r="D15" s="3"/>
@@ -1210,7 +1210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
       <c r="D16" s="3"/>
@@ -1222,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="23"/>
       <c r="D17" s="3"/>
       <c r="H17" s="6">
@@ -1233,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="32" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="N19"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="32" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="32" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="32">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="35">
         <v>2</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="35">
         <v>3</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="32">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="33">
         <v>5</v>
       </c>
@@ -1362,12 +1362,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="31" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D30"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="32" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="32" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="32" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="32" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="36" t="s">
         <v>39</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="35" t="s">
         <v>40</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="35" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="37" t="s">
         <v>43</v>
       </c>
@@ -1463,39 +1463,39 @@
   <dimension ref="A3:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="41"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="38"/>
       <c r="B7" s="32" t="s">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="39">
         <v>0</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="39">
         <v>18486</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="39">
         <v>19717</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="39">
         <v>20946</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="39">
         <v>22178</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="39">
         <v>23409</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="39">
         <v>24639</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="39">
         <v>25870</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="39">
         <v>27097</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="39">
         <v>28422</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="39">
         <v>29744</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="39">
         <v>31068</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="39">
         <v>32391</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="39">
         <v>33717</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="39">
         <v>35040</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="39">
         <v>36395</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="39">
         <v>37753</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="39">
         <v>39110</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="39">
         <v>40466</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="39">
         <v>41825</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="39">
         <v>43183</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="39">
         <v>44539</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="39">
         <v>45896</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="39">
         <v>47379</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="39">
         <v>50287</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="39">
         <v>53194</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="39">
         <v>56104</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="39">
         <v>59013</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="39">
         <v>61920</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="39">
         <v>64830</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" s="39">
         <v>67737</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="39">
         <v>70646</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="39">
         <v>73557</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="39">
         <v>76463</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="39">
         <v>79374</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" s="39">
         <v>82282</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" s="39">
         <v>85188</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" s="39">
         <v>88097</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" s="39">
         <v>91063</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="39">
         <v>94043</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="39">
         <v>97021</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="39">
         <v>99999</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="39">
         <v>102977</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="39">
         <v>105956</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="39">
         <v>108936</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" s="39">
         <v>111914</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" s="39">
         <v>114891</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" s="39">
         <v>117870</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" s="39">
         <v>120849</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" s="39">
         <v>123827</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" s="39">
         <v>126806</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="39">
         <v>129783</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" s="39">
         <v>132762</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" s="39">
         <v>135743</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" s="39">
         <v>138720</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" s="39">
         <v>141699</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B65" s="39">
         <v>144676</v>
       </c>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B66" s="39">
         <v>147656</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="H66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B67" s="39">
         <v>150635</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0.72</v>
       </c>
       <c r="H67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B68" s="39">
         <v>153613</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I68">
         <v>23</v>
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B69" s="39">
         <v>156591</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B70" s="39">
         <v>159568</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B71" s="39">
         <v>162548</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B72" s="39">
         <v>165526</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B73" s="39">
         <v>168505</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B74" s="39">
         <v>171484</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B75" s="39">
         <v>174462</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B76" s="39">
         <v>177441</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="40">
         <v>180419</v>
       </c>
@@ -2353,12 +2353,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B82" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
@@ -2377,7 +2377,7 @@
       <c r="R82" s="43"/>
       <c r="S82" s="43"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B83" s="44" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="R83" s="43"/>
       <c r="S83" s="43"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B84" s="44" t="s">
         <v>4</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B85" s="44" t="s">
         <v>5</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
@@ -2578,9 +2578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B87" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="43">
         <v>300</v>
@@ -2637,9 +2637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B88" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C88">
         <v>967.25</v>
@@ -2696,9 +2696,9 @@
         <v>2153.5</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B89" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C89">
         <v>967.25</v>
@@ -2755,9 +2755,9 @@
         <v>2365.2000000000003</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B90" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C90">
         <v>360</v>
@@ -2814,9 +2814,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B91" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C91">
         <v>150</v>
@@ -2873,9 +2873,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B92" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2932,9 +2932,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B93" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C93">
         <v>120</v>
@@ -2991,9 +2991,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B94" s="47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3050,9 +3050,9 @@
         <v>358.8</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B95" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3109,9 +3109,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B96" s="47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3168,9 +3168,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B97" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3227,9 +3227,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B98" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3286,9 +3286,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B99" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C99">
         <v>793.52</v>
@@ -3418,35 +3418,35 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="62"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="57"/>
       <c r="C4" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="58" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="51">
         <v>7.18</v>
@@ -3455,9 +3455,9 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="53">
         <v>5.75</v>

--- a/git-connect/resources/KSP.xlsx
+++ b/git-connect/resources/KSP.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rene Smeitink\Documents\Monli\Wat kost een kind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robdenegro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14348" windowHeight="4020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,19 @@
     <definedName name="ZoekenNumeriek">Sheet1!$B$18:$C$27</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -246,12 +254,24 @@
   </si>
   <si>
     <t>PremiumOutOfSchoolCare</t>
+  </si>
+  <si>
+    <t>Maximum uurtarief kinderopvang</t>
+  </si>
+  <si>
+    <t>Maximum uurtarief BSO</t>
+  </si>
+  <si>
+    <t>Maximum uurtarief gastouder</t>
+  </si>
+  <si>
+    <t>Maximum uurtarief gastouder BSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,6 +292,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -304,11 +325,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -316,17 +337,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -336,7 +357,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -344,23 +365,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -368,7 +389,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -378,7 +399,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,53 +408,53 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -441,14 +462,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,23 +477,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +633,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -673,9 +694,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -703,31 +724,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -755,23 +759,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,22 +941,22 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.46484375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1328125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.46484375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -983,7 +970,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +990,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1014,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1033,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1052,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1080,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1102,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1128,7 +1115,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
@@ -1174,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="34"/>
       <c r="C13" s="23"/>
       <c r="D13" s="3"/>
@@ -1186,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
       <c r="D14" s="3"/>
@@ -1198,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
       <c r="D15" s="3"/>
@@ -1210,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
       <c r="D16" s="3"/>
@@ -1222,7 +1209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="23"/>
       <c r="D17" s="3"/>
       <c r="H17" s="6">
@@ -1233,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1255,7 @@
       </c>
       <c r="N19"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1299,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="32">
         <v>1</v>
       </c>
@@ -1322,7 +1309,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="35">
         <v>2</v>
       </c>
@@ -1332,7 +1319,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="35">
         <v>3</v>
       </c>
@@ -1342,7 +1329,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="32">
         <v>4</v>
       </c>
@@ -1352,7 +1339,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33">
         <v>5</v>
       </c>
@@ -1362,12 +1349,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="31" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1363,7 @@
       </c>
       <c r="D30"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="32" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="32" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="s">
         <v>39</v>
       </c>
@@ -1416,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>40</v>
       </c>
@@ -1424,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>43</v>
       </c>
@@ -1463,21 +1450,21 @@
   <dimension ref="A3:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1473,7 @@
       </c>
       <c r="D4" s="49"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1482,7 @@
       </c>
       <c r="D5" s="41"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="32" t="s">
         <v>5</v>
@@ -1522,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="39">
         <v>0</v>
       </c>
@@ -1545,9 +1532,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="39">
-        <v>18486</v>
+        <v>18850</v>
       </c>
       <c r="C10" s="48">
         <v>0.94</v>
@@ -1556,9 +1543,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="39">
-        <v>19717</v>
+        <v>20106</v>
       </c>
       <c r="C11" s="48">
         <v>0.94</v>
@@ -1567,9 +1554,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="39">
-        <v>20946</v>
+        <v>21359</v>
       </c>
       <c r="C12" s="48">
         <v>0.94</v>
@@ -1578,9 +1565,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="39">
-        <v>22178</v>
+        <v>22615</v>
       </c>
       <c r="C13" s="48">
         <v>0.94</v>
@@ -1589,9 +1576,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="39">
-        <v>23409</v>
+        <v>23871</v>
       </c>
       <c r="C14" s="48">
         <v>0.93799999999999994</v>
@@ -1600,9 +1587,9 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="39">
-        <v>24639</v>
+        <v>25125</v>
       </c>
       <c r="C15" s="48">
         <v>0.92800000000000005</v>
@@ -1611,9 +1598,9 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="39">
-        <v>25870</v>
+        <v>26380</v>
       </c>
       <c r="C16" s="48">
         <v>0.92</v>
@@ -1622,9 +1609,9 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="39">
-        <v>27097</v>
+        <v>27631</v>
       </c>
       <c r="C17" s="48">
         <v>0.91200000000000003</v>
@@ -1633,9 +1620,9 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="39">
-        <v>28422</v>
+        <v>28982</v>
       </c>
       <c r="C18" s="48">
         <v>0.90400000000000003</v>
@@ -1644,9 +1631,9 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="39">
-        <v>29744</v>
+        <v>30330</v>
       </c>
       <c r="C19" s="48">
         <v>0.89300000000000002</v>
@@ -1655,9 +1642,9 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="39">
-        <v>31068</v>
+        <v>31681</v>
       </c>
       <c r="C20" s="48">
         <v>0.88700000000000001</v>
@@ -1666,9 +1653,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="39">
-        <v>32391</v>
+        <v>33030</v>
       </c>
       <c r="C21" s="48">
         <v>0.877</v>
@@ -1677,9 +1664,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="39">
-        <v>33717</v>
+        <v>34382</v>
       </c>
       <c r="C22" s="48">
         <v>0.86799999999999999</v>
@@ -1688,9 +1675,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="39">
-        <v>35040</v>
+        <v>35731</v>
       </c>
       <c r="C23" s="48">
         <v>0.86</v>
@@ -1699,9 +1686,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="39">
-        <v>36395</v>
+        <v>37113</v>
       </c>
       <c r="C24" s="48">
         <v>0.85099999999999998</v>
@@ -1710,9 +1697,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="39">
-        <v>37753</v>
+        <v>38497</v>
       </c>
       <c r="C25" s="48">
         <v>0.84299999999999997</v>
@@ -1721,9 +1708,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="39">
-        <v>39110</v>
+        <v>39881</v>
       </c>
       <c r="C26" s="48">
         <v>0.83399999999999996</v>
@@ -1732,9 +1719,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="39">
-        <v>40466</v>
+        <v>41264</v>
       </c>
       <c r="C27" s="48">
         <v>0.82299999999999995</v>
@@ -1743,9 +1730,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="39">
-        <v>41825</v>
+        <v>42650</v>
       </c>
       <c r="C28" s="48">
         <v>0.81799999999999995</v>
@@ -1754,9 +1741,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="39">
-        <v>43183</v>
+        <v>44034</v>
       </c>
       <c r="C29" s="48">
         <v>0.80800000000000005</v>
@@ -1765,9 +1752,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="39">
-        <v>44539</v>
+        <v>45417</v>
       </c>
       <c r="C30" s="48">
         <v>0.80100000000000005</v>
@@ -1776,9 +1763,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="39">
-        <v>45896</v>
+        <v>46801</v>
       </c>
       <c r="C31" s="48">
         <v>0.79</v>
@@ -1787,9 +1774,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="39">
-        <v>47379</v>
+        <v>48313</v>
       </c>
       <c r="C32" s="48">
         <v>0.77200000000000002</v>
@@ -1798,9 +1785,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="39">
-        <v>50287</v>
+        <v>51279</v>
       </c>
       <c r="C33" s="48">
         <v>0.76300000000000001</v>
@@ -1809,9 +1796,9 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="39">
-        <v>53194</v>
+        <v>54243</v>
       </c>
       <c r="C34" s="48">
         <v>0.749</v>
@@ -1820,9 +1807,9 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="39">
-        <v>56104</v>
+        <v>57210</v>
       </c>
       <c r="C35" s="48">
         <v>0.72299999999999998</v>
@@ -1831,9 +1818,9 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="39">
-        <v>59013</v>
+        <v>60177</v>
       </c>
       <c r="C36" s="48">
         <v>0.69599999999999995</v>
@@ -1842,9 +1829,9 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="39">
-        <v>61920</v>
+        <v>63141</v>
       </c>
       <c r="C37" s="48">
         <v>0.66900000000000004</v>
@@ -1853,9 +1840,9 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="39">
-        <v>64830</v>
+        <v>66108</v>
       </c>
       <c r="C38" s="48">
         <v>0.64100000000000001</v>
@@ -1864,9 +1851,9 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="39">
-        <v>67737</v>
+        <v>69073</v>
       </c>
       <c r="C39" s="48">
         <v>0.61299999999999999</v>
@@ -1875,9 +1862,9 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="39">
-        <v>70646</v>
+        <v>72039</v>
       </c>
       <c r="C40" s="48">
         <v>0.58699999999999997</v>
@@ -1886,9 +1873,9 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="39">
-        <v>73557</v>
+        <v>75007</v>
       </c>
       <c r="C41" s="48">
         <v>0.56000000000000005</v>
@@ -1897,9 +1884,9 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="39">
-        <v>76463</v>
+        <v>77971</v>
       </c>
       <c r="C42" s="48">
         <v>0.53300000000000003</v>
@@ -1908,9 +1895,9 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="39">
-        <v>79374</v>
+        <v>80939</v>
       </c>
       <c r="C43" s="48">
         <v>0.504</v>
@@ -1919,9 +1906,9 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="39">
-        <v>82282</v>
+        <v>83904</v>
       </c>
       <c r="C44" s="48">
         <v>0.47699999999999998</v>
@@ -1930,9 +1917,9 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="39">
-        <v>85188</v>
+        <v>86868</v>
       </c>
       <c r="C45" s="48">
         <v>0.45100000000000001</v>
@@ -1941,9 +1928,9 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="39">
-        <v>88097</v>
+        <v>89834</v>
       </c>
       <c r="C46" s="48">
         <v>0.42299999999999999</v>
@@ -1952,9 +1939,9 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="39">
-        <v>91063</v>
+        <v>92859</v>
       </c>
       <c r="C47" s="48">
         <v>0.39800000000000002</v>
@@ -1963,9 +1950,9 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="39">
-        <v>94043</v>
+        <v>95897</v>
       </c>
       <c r="C48" s="48">
         <v>0.374</v>
@@ -1974,9 +1961,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="39">
-        <v>97021</v>
+        <v>98934</v>
       </c>
       <c r="C49" s="48">
         <v>0.34799999999999998</v>
@@ -1985,9 +1972,9 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="39">
-        <v>99999</v>
+        <v>101971</v>
       </c>
       <c r="C50" s="48">
         <v>0.33300000000000002</v>
@@ -1996,9 +1983,9 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="39">
-        <v>102977</v>
+        <v>105007</v>
       </c>
       <c r="C51" s="48">
         <v>0.33300000000000002</v>
@@ -2007,9 +1994,9 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="39">
-        <v>105956</v>
+        <v>108045</v>
       </c>
       <c r="C52" s="48">
         <v>0.33300000000000002</v>
@@ -2018,9 +2005,9 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="39">
-        <v>108936</v>
+        <v>111084</v>
       </c>
       <c r="C53" s="48">
         <v>0.33300000000000002</v>
@@ -2029,9 +2016,9 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="39">
-        <v>111914</v>
+        <v>114121</v>
       </c>
       <c r="C54" s="48">
         <v>0.33300000000000002</v>
@@ -2040,9 +2027,9 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="39">
-        <v>114891</v>
+        <v>117156</v>
       </c>
       <c r="C55" s="48">
         <v>0.33300000000000002</v>
@@ -2051,9 +2038,9 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="39">
-        <v>117870</v>
+        <v>120194</v>
       </c>
       <c r="C56" s="48">
         <v>0.33300000000000002</v>
@@ -2062,9 +2049,9 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="39">
-        <v>120849</v>
+        <v>123232</v>
       </c>
       <c r="C57" s="48">
         <v>0.33300000000000002</v>
@@ -2073,9 +2060,9 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="39">
-        <v>123827</v>
+        <v>126269</v>
       </c>
       <c r="C58" s="48">
         <v>0.33300000000000002</v>
@@ -2084,9 +2071,9 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="39">
-        <v>126806</v>
+        <v>129306</v>
       </c>
       <c r="C59" s="48">
         <v>0.33300000000000002</v>
@@ -2095,9 +2082,9 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="39">
-        <v>129783</v>
+        <v>132342</v>
       </c>
       <c r="C60" s="48">
         <v>0.33300000000000002</v>
@@ -2106,9 +2093,9 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="39">
-        <v>132762</v>
+        <v>135380</v>
       </c>
       <c r="C61" s="48">
         <v>0.33300000000000002</v>
@@ -2117,9 +2104,9 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="39">
-        <v>135743</v>
+        <v>138420</v>
       </c>
       <c r="C62" s="48">
         <v>0.33300000000000002</v>
@@ -2128,9 +2115,9 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="39">
-        <v>138720</v>
+        <v>141455</v>
       </c>
       <c r="C63" s="48">
         <v>0.33300000000000002</v>
@@ -2139,9 +2126,9 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="39">
-        <v>141699</v>
+        <v>144493</v>
       </c>
       <c r="C64" s="48">
         <v>0.33300000000000002</v>
@@ -2150,9 +2137,9 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="39">
-        <v>144676</v>
+        <v>147529</v>
       </c>
       <c r="C65" s="48">
         <v>0.33300000000000002</v>
@@ -2167,9 +2154,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="39">
-        <v>147656</v>
+        <v>150567</v>
       </c>
       <c r="C66" s="48">
         <v>0.33300000000000002</v>
@@ -2196,9 +2183,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="39">
-        <v>150635</v>
+        <v>153605</v>
       </c>
       <c r="C67" s="48">
         <v>0.33300000000000002</v>
@@ -2225,9 +2212,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="39">
-        <v>153613</v>
+        <v>156642</v>
       </c>
       <c r="C68" s="48">
         <v>0.33300000000000002</v>
@@ -2254,9 +2241,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="39">
-        <v>156591</v>
+        <v>159679</v>
       </c>
       <c r="C69" s="48">
         <v>0.33300000000000002</v>
@@ -2265,9 +2252,9 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="39">
-        <v>159568</v>
+        <v>162714</v>
       </c>
       <c r="C70" s="48">
         <v>0.33300000000000002</v>
@@ -2276,9 +2263,9 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="39">
-        <v>162548</v>
+        <v>165753</v>
       </c>
       <c r="C71" s="48">
         <v>0.33300000000000002</v>
@@ -2287,9 +2274,9 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="39">
-        <v>165526</v>
+        <v>168790</v>
       </c>
       <c r="C72" s="48">
         <v>0.33300000000000002</v>
@@ -2298,9 +2285,9 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="39">
-        <v>168505</v>
+        <v>171828</v>
       </c>
       <c r="C73" s="48">
         <v>0.33300000000000002</v>
@@ -2309,9 +2296,9 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="39">
-        <v>171484</v>
+        <v>174865</v>
       </c>
       <c r="C74" s="48">
         <v>0.33300000000000002</v>
@@ -2320,9 +2307,9 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="39">
-        <v>174462</v>
+        <v>177902</v>
       </c>
       <c r="C75" s="48">
         <v>0.33300000000000002</v>
@@ -2331,9 +2318,9 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="39">
-        <v>177441</v>
+        <v>180940</v>
       </c>
       <c r="C76" s="48">
         <v>0.33300000000000002</v>
@@ -2342,9 +2329,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="40">
-        <v>180419</v>
+        <v>183976</v>
       </c>
       <c r="C77" s="50">
         <v>0.33300000000000002</v>
@@ -2353,7 +2340,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="44" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2364,7 @@
       <c r="R82" s="43"/>
       <c r="S82" s="43"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="44" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2388,7 @@
       <c r="R83" s="43"/>
       <c r="S83" s="43"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="44" t="s">
         <v>4</v>
       </c>
@@ -2460,7 +2447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="44" t="s">
         <v>5</v>
       </c>
@@ -2519,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="46" t="s">
         <v>47</v>
       </c>
@@ -2637,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="47" t="s">
         <v>48</v>
       </c>
@@ -2696,7 +2683,7 @@
         <v>2153.5</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="47" t="s">
         <v>49</v>
       </c>
@@ -2755,7 +2742,7 @@
         <v>2365.2000000000003</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="47" t="s">
         <v>50</v>
       </c>
@@ -2814,7 +2801,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="47" t="s">
         <v>51</v>
       </c>
@@ -2873,7 +2860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="47" t="s">
         <v>52</v>
       </c>
@@ -2932,7 +2919,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B93" s="47" t="s">
         <v>53</v>
       </c>
@@ -2991,7 +2978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B94" s="47" t="s">
         <v>54</v>
       </c>
@@ -3050,7 +3037,7 @@
         <v>358.8</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="47" t="s">
         <v>55</v>
       </c>
@@ -3109,7 +3096,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B96" s="47" t="s">
         <v>56</v>
       </c>
@@ -3168,7 +3155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="47" t="s">
         <v>57</v>
       </c>
@@ -3227,7 +3214,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="47" t="s">
         <v>58</v>
       </c>
@@ -3286,7 +3273,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="47" t="s">
         <v>59</v>
       </c>
@@ -3412,21 +3399,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3422,7 @@
       </c>
       <c r="D3" s="62"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="55" t="s">
         <v>65</v>
@@ -3444,26 +3431,58 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="51">
-        <v>7.18</v>
+        <v>7.45</v>
       </c>
       <c r="D5" s="52">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="53">
-        <v>5.75</v>
+        <v>5.91</v>
       </c>
       <c r="D6" s="54">
-        <v>5.75</v>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
